--- a/Texts/Город Сокровищ/Все персонажи/Пучиена 1.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пучиена 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Óàë ëàëéö çå ðñåäíåóïâ îàí\nòåãïäîÿ ëôðéóû?..</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That stink is finally fading…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эта вонь наконец-то\nрассеивается…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóà âïîû îàëïîåø-óï\nñàòòåéâàåóòÿ…</t>
   </si>
 </sst>
 </file>
@@ -474,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,6 +585,23 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
+        <v>152</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Texts/Город Сокровищ/Все персонажи/Пучиена 1.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пучиена 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -91,6 +91,30 @@
   </si>
   <si>
     <t xml:space="preserve"> Üóà âïîû îàëïîåø-óï\nñàòòåéâàåóòÿ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The guild\'s crew seems to run\nitself ragged these days…</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1411.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гильдейские команды работают\nдо изнеможения...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãéìûäåêòëéå ëïíàîäú ñàáïóàýó\näï éèîåíïçåîéÿ…</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1604.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve heard rumors that the\nTime Gears are being sealed away…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ходят слухи, что где-то сейчас\nзапечатывают Шестерни Времени...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïäÿó òìôöé, œóï ãäå-óï òåêœàò\nèàðåœàóúâàýó Šåòóåñîé Âñåíåîé...</t>
   </si>
 </sst>
 </file>
@@ -486,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,20 +610,54 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="8">
         <v>152</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="9" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="8">
+        <v>133</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4">
+        <v>114</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Пучиена 1.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пучиена 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Öïäÿó òìôöé, œóï ãäå-óï òåêœàò\nèàðåœàóúâàýó Šåòóåñîé Âñåíåîé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'re the only team capable of\nstopping the planet\'s paralysis!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2405.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы единственная команда, которая\nможет остановить планетарный паралич!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú åäéîòóâåîîàÿ ëïíàîäà, ëïóïñàÿ\níïçåó ïòóàîïâéóû ðìàîåóàñîúê ðàñàìéœ!</t>
   </si>
 </sst>
 </file>
@@ -510,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,20 +656,37 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="8">
         <v>114</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4">
+        <v>95</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Пучиена 1.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пучиена 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -127,6 +127,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Âú åäéîòóâåîîàÿ ëïíàîäà, ëïóïñàÿ\níïçåó ïòóàîïâéóû ðìàîåóàñîúê ðàñàìéœ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2505.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The grand master of all things\nbad?[K] ...What?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0106.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гранд мастер всего самого\nплохого?[K] ...Что?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãñàîä íàòóåñ âòåãï òàíïãï\nðìïöïãï?[K] ...Œóï?</t>
   </si>
 </sst>
 </file>
@@ -522,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,6 +704,32 @@
         <v>35</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4">
+        <v>76</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Texts/Город Сокровищ/Все персонажи/Пучиена 1.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пучиена 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -142,6 +142,45 @@
   </si>
   <si>
     <t xml:space="preserve"> Ãñàîä íàòóåñ âòåãï òàíïãï\nðìïöïãï?[K] ...Œóï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This is the first time I\'ve been\nhere, but it\'s a pretty fun place.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us0402.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я здесь впервые, но мне уже\nнравится это место.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ èäåòû âðåñâúå, îï íîå ôçå\nîñàâéóòÿ üóï íåòóï.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2007.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The rumor is that [CS:N]Drowzee[CR] has\nreformed and forsaken his criminal past.[K]\nBut I have to wonder…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/T01P02A/us2009.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ходят слухи, что [CS:N]Дроузи[CR]\nисправился и искупил своё криминальное\nпрошлое.[K] Но я мало этому верю...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïäÿó òìôöé, œóï [CS:N]Äñïôèé[CR]\néòðñàâéìòÿ é éòëôðéì òâïæ ëñéíéîàìûîïå\nðñïšìïå.[K] Îï ÿ íàìï üóïíô âåñý...</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2013.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hear that [CS:N]Drowzee[CR] is at\nthe guild.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Говорят, что [CS:N]Дроузи[CR] находится\nв гильдии.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãïâïñÿó, œóï [CS:N]Äñïôèé[CR] îàöïäéóòÿ\nâ ãéìûäéé.</t>
   </si>
 </sst>
 </file>
@@ -537,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,20 +753,80 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="8">
         <v>76</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="9" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="8">
+        <v>38</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="4">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
